--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141244.3364912618</v>
+        <v>-144001.5062970447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.72447046796691</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>2.007925074341244</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>75.40811152786844</v>
+        <v>292.3596125040611</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>65.29997400339114</v>
       </c>
       <c r="G4" t="n">
-        <v>120.4120358099647</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.3583869108809</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>315.2275246239967</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>102.6386299168222</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>105.7617448159911</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>118.1956869161855</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.0220144292544</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>58.64426104072466</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>66.21638145475012</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.17139158339562</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>40.62253010341791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>52.57516893522981</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>261.3661834507345</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>158.7974735697945</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.82863813027228</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,19 +2764,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>175.0948681033051</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>171.4144753991464</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>60.86846495359855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>98.7489785493142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913.2877989022412</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C2" t="n">
-        <v>913.2877989022412</v>
+        <v>769.2477369710689</v>
       </c>
       <c r="D2" t="n">
-        <v>555.0221002954906</v>
+        <v>767.2195298252697</v>
       </c>
       <c r="E2" t="n">
-        <v>555.0221002954906</v>
+        <v>767.2195298252697</v>
       </c>
       <c r="F2" t="n">
-        <v>144.0361955058831</v>
+        <v>767.2195298252697</v>
       </c>
       <c r="G2" t="n">
-        <v>130.112791444474</v>
+        <v>349.2557217234565</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>932.2014054355411</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326646</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D4" t="n">
-        <v>175.5713008203288</v>
+        <v>119.9025515207595</v>
       </c>
       <c r="E4" t="n">
-        <v>175.5713008203288</v>
+        <v>119.9025515207595</v>
       </c>
       <c r="F4" t="n">
-        <v>175.5713008203288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1117.513150920515</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.513150920515</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.513150920515</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1117.513150920515</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726407</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>304.5083130726407</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>304.5083130726407</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>157.6183655747303</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>157.6183655747303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>1119.387191067389</v>
       </c>
       <c r="C8" t="n">
-        <v>884.2894331389243</v>
+        <v>750.4246741269774</v>
       </c>
       <c r="D8" t="n">
-        <v>884.2894331389243</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>498.5011805406801</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>491.5556797914766</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
         <v>372.1660970478549</v>
@@ -4808,16 +4808,16 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.823823917965</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.823823917965</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.823823917965</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2235.760936574395</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1882.992281304281</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1509.526523043201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1119.387191067389</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.2191917033111</v>
+        <v>281.7864541388444</v>
       </c>
       <c r="C10" t="n">
-        <v>343.2191917033111</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="D10" t="n">
-        <v>343.2191917033111</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>343.2191917033111</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>986.9924294870323</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>779.5521447394377</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>779.5521447394377</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>779.5521447394377</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>524.8676565335509</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>524.8676565335509</v>
+        <v>509.7760050368617</v>
       </c>
       <c r="X10" t="n">
-        <v>524.8676565335509</v>
+        <v>281.7864541388444</v>
       </c>
       <c r="Y10" t="n">
-        <v>524.8676565335509</v>
+        <v>281.7864541388444</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5021,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2396.284910263699</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.430075918604</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2213.430075918604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1924.354849262801</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1669.670361056914</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.253191019954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1152.263640121936</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.4710609784063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>276.5613528960949</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>134.849521738293</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,10 +5826,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
         <v>280.8495004245706</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>945.402603663004</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>776.4664207350971</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>626.3497813227614</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E25" t="n">
-        <v>478.4366877403683</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F25" t="n">
-        <v>331.5467402424579</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G25" t="n">
-        <v>164.3506409573378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>164.3506409573378</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2020.199042352916</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1731.123815697113</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1476.439327491226</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6470,40 +6470,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6886,7 +6886,7 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6932,10 +6932,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,19 +6944,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,16 +7728,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>216.3441640494767</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.0093711955137</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>352.6751165463417</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.20385512672606</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.64330621514761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.726664722474368</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>11.43719818829325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.31058222398315</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.9909749281419</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>191.2691783702294</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.6564717779741</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="M2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="N2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682751</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682807</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977622</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557542.6167805289</v>
+        <v>-557763.7480945035</v>
       </c>
       <c r="C6" t="n">
-        <v>15109.17017266361</v>
+        <v>15109.17017266346</v>
       </c>
       <c r="D6" t="n">
-        <v>-140694.6359211315</v>
+        <v>-140694.6359211314</v>
       </c>
       <c r="E6" t="n">
-        <v>-575172.7828876441</v>
+        <v>-575207.5208130798</v>
       </c>
       <c r="F6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="G6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677268</v>
       </c>
       <c r="H6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="I6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="J6" t="n">
-        <v>19456.68930056937</v>
+        <v>19421.95137513384</v>
       </c>
       <c r="K6" t="n">
-        <v>195879.9084931622</v>
+        <v>195845.1705677267</v>
       </c>
       <c r="L6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="M6" t="n">
-        <v>71671.39778510416</v>
+        <v>71636.6598596682</v>
       </c>
       <c r="N6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677268</v>
       </c>
       <c r="O6" t="n">
-        <v>195879.9084931624</v>
+        <v>195845.1705677266</v>
       </c>
       <c r="P6" t="n">
-        <v>171630.4340217826</v>
+        <v>171630.4340217827</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,10 +26984,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>248.5146612364887</v>
+        <v>31.56316026029606</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>80.1210740195401</v>
       </c>
       <c r="G4" t="n">
-        <v>46.89776644908618</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.9145048601267</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>91.64852111771478</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.53225892497292</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>180.5201294259866</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>294.7212170297513</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>25.63087269888581</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>108.6025600579032</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>62.95680021304119</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>412.6413487888528</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
